--- a/Data/cards/Cards2022.xlsx
+++ b/Data/cards/Cards2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20505" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="73">
   <si>
     <t>Rule</t>
   </si>
@@ -831,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
@@ -8369,9 +8369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8695,6 +8695,9 @@
         <v>11</v>
       </c>
       <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="M12" s="25" t="s">
         <v>11</v>
       </c>
       <c r="O12" s="7"/>
